--- a/Input/Choque.xlsx
+++ b/Input/Choque.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoo\Google Drive\IPEA\CGE\ProgramsPy\GeraAnaliseNacional\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoo\Google Drive\IPEA\CGE\ProgramsPy\GeraAnaliseRegional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5020E87C-A3D5-4AB5-BB51-FE4AF9E4098F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E9EB27-2C1D-4BBE-81F8-1BA133B98414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2796" yWindow="2052" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demanda" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
   <si>
     <t>Agricultura, inclusive o apoio à agricultura e a pós-colheita</t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>Estoque</t>
-  </si>
-  <si>
-    <t>Restrição Trabalho</t>
   </si>
 </sst>
 </file>
@@ -2483,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5AEA6B-E89F-4C8A-AA3F-A012BA71E933}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2500,8 +2497,8 @@
       <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
-        <v>83</v>
+      <c r="C1">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2512,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2523,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2534,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2545,7 +2542,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2556,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2567,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2578,7 +2575,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2589,7 +2586,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2600,7 +2597,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2611,7 +2608,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2622,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2633,7 +2630,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2644,7 +2641,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2655,7 +2652,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2666,7 +2663,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2677,7 +2674,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2688,7 +2685,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2699,7 +2696,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2710,7 +2707,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2721,7 +2718,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2732,7 +2729,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2743,7 +2740,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2754,7 +2751,7 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2765,7 +2762,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2776,7 +2773,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2787,7 +2784,7 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2798,7 +2795,7 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2809,7 +2806,7 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2820,7 +2817,7 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2831,7 +2828,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2842,7 +2839,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2853,7 +2850,7 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2864,7 +2861,7 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2875,7 +2872,7 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2886,7 +2883,7 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2897,7 +2894,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2908,7 +2905,7 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2919,7 +2916,7 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2930,7 +2927,7 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2941,7 +2938,7 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2952,7 +2949,7 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2963,7 +2960,7 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2974,7 +2971,7 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2985,7 +2982,7 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2996,7 +2993,7 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3007,7 +3004,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3018,7 +3015,7 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3029,7 +3026,7 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3040,7 +3037,7 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3051,7 +3048,7 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3062,7 +3059,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3073,7 +3070,7 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3084,7 +3081,7 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3095,7 +3092,7 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3106,7 +3103,7 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3117,7 +3114,7 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3128,7 +3125,7 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3139,7 +3136,7 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3150,7 +3147,7 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3161,7 +3158,7 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3172,7 +3169,7 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3183,7 +3180,7 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3194,7 +3191,7 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3205,7 +3202,7 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3216,7 +3213,7 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3227,7 +3224,7 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3238,7 +3235,7 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3249,7 +3246,7 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
